--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aih166\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="184">
   <si>
     <t>RoleName</t>
   </si>
@@ -75,9 +70,6 @@
     <t>AddressLine2</t>
   </si>
   <si>
-    <t>OtherDetailId</t>
-  </si>
-  <si>
     <t>LoginID</t>
   </si>
   <si>
@@ -192,9 +184,6 @@
     <t>FoodTypeId</t>
   </si>
   <si>
-    <t>UserOtherDetails</t>
-  </si>
-  <si>
     <t>ChefOtherDetails</t>
   </si>
   <si>
@@ -471,9 +460,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>IsDicountUsed</t>
-  </si>
-  <si>
     <t>TaskStatusMaster</t>
   </si>
   <si>
@@ -483,9 +469,6 @@
     <t>TotalPrice</t>
   </si>
   <si>
-    <t>DiscountedAmount</t>
-  </si>
-  <si>
     <t>OrderTypeCode</t>
   </si>
   <si>
@@ -537,9 +520,6 @@
     <t>IsDelivered</t>
   </si>
   <si>
-    <t>Ex:Order Selected, Delivery Details entered, CoDPayment inprogress, sodexo payment inprogress, NEFT payment inprogress, Paid, confirmed,Cancelling in progress,Cancelled, Meal Planner order in progress, delivery in progress, delivered</t>
-  </si>
-  <si>
     <t>5 days veg pack</t>
   </si>
   <si>
@@ -559,13 +539,46 @@
   </si>
   <si>
     <t>ScheduleDates</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ValidityFrom</t>
+  </si>
+  <si>
+    <t>ValidityTo</t>
+  </si>
+  <si>
+    <t>IsDiscountUsed</t>
+  </si>
+  <si>
+    <t>UserAddressDetails</t>
+  </si>
+  <si>
+    <t>AddressDetailId</t>
+  </si>
+  <si>
+    <t>ActualPrice</t>
+  </si>
+  <si>
+    <t>AppliedDiscountId</t>
+  </si>
+  <si>
+    <t>OrderAppliedDiscount</t>
+  </si>
+  <si>
+    <t>TotalDiscount</t>
+  </si>
+  <si>
+    <t>Ex:Order Initiated, CoDPayment inprogress, sodexo payment inprogress, NEFT payment inprogress, Paid, confirmed,Cancelling in progress,Cancelled, Meal Planner order in progress, delivery in progress, delivered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,7 +611,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +630,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -630,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,7 +660,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,25 +908,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="5"/>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -912,14 +935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
@@ -927,89 +950,91 @@
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -1021,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1044,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1104,100 +1129,100 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>110</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
         <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1207,14 +1232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
@@ -1230,403 +1255,417 @@
     <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15">
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15">
+      <c r="A20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="L14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L15" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L18" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="L21" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
         <v>125</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
       </c>
       <c r="F22" s="7">
         <v>0.05</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="B25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="I27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1636,58 +1675,58 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1695,16 +1734,16 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1715,47 +1754,47 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1766,13 +1805,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1786,46 +1825,46 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1840,12 +1879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -1854,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -1865,9 +1904,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -1876,22 +1915,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="G15" t="s">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="G16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1901,296 +1945,347 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
+      <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
+      <c r="F2" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>69</v>
+      <c r="F3" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>148</v>
       </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="F21" s="6" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" ht="185.25">
+      <c r="F21" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
       <c r="G22" s="6"/>
     </row>
   </sheetData>
@@ -2200,101 +2295,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>161</v>
       </c>
-      <c r="B3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2303,42 +2398,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2346,42 +2441,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2391,110 +2486,110 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="184">
   <si>
     <t>RoleName</t>
   </si>
@@ -229,18 +229,6 @@
     <t>TaskStatusId</t>
   </si>
   <si>
-    <t>ChefOrder</t>
-  </si>
-  <si>
-    <t>ChefOrderId</t>
-  </si>
-  <si>
-    <t>MapOrderID</t>
-  </si>
-  <si>
-    <t>ChefDeliveredDateTime</t>
-  </si>
-  <si>
     <t>PaymentType</t>
   </si>
   <si>
@@ -265,18 +253,6 @@
     <t>NumberOfMeal</t>
   </si>
   <si>
-    <t>MapOrderToChef</t>
-  </si>
-  <si>
-    <t>AssignedPickUpDate</t>
-  </si>
-  <si>
-    <t>AssignedPickUpTime</t>
-  </si>
-  <si>
-    <t>OrderGivenDatetime</t>
-  </si>
-  <si>
     <t>Ex:Delivery PointSelected,  Meal Selection in progress, Meal Selected, delivery detail in progress, delivery details entered,  Proceed for Payment, Payment option selected, Payment in progress, confirmed, mapping chef, chef mapped, chef rejected, chef remapped,  food proceed, food collected, delivery in progress, delivered, feed back received.</t>
   </si>
   <si>
@@ -572,6 +548,30 @@
   </si>
   <si>
     <t>Ex:Order Initiated, CoDPayment inprogress, sodexo payment inprogress, NEFT payment inprogress, Paid, confirmed,Cancelling in progress,Cancelled, Meal Planner order in progress, delivery in progress, delivered</t>
+  </si>
+  <si>
+    <t>ChefOrderMapping</t>
+  </si>
+  <si>
+    <t>MappingId</t>
+  </si>
+  <si>
+    <t>OrderGivenTime</t>
+  </si>
+  <si>
+    <t>ExpectedPickupTime</t>
+  </si>
+  <si>
+    <t>ActualPickupTime</t>
+  </si>
+  <si>
+    <t>ChefOrderCancelDetail</t>
+  </si>
+  <si>
+    <t>OrderCanceld</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -955,25 +955,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -988,7 +988,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -997,7 +997,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1020,12 +1020,12 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -1148,81 +1148,81 @@
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="F16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1257,32 +1257,32 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>50</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1320,10 +1320,10 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1331,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1357,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -1504,23 +1504,23 @@
         <v>33</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="L15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="L16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
         <v>51</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="17" spans="1:14">
       <c r="L17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1552,25 +1552,25 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s">
         <v>3</v>
@@ -1581,22 +1581,22 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
         <v>4</v>
@@ -1607,22 +1607,22 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7">
         <v>0.05</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s">
         <v>33</v>
@@ -1633,39 +1633,39 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="B25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="I27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1714,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1972,25 +1972,25 @@
         <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
@@ -2000,13 +2000,13 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>65</v>
@@ -2018,7 +2018,7 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2029,7 +2029,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -2058,7 +2058,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>68</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2078,13 +2078,13 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>63</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2162,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>3</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -2261,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2269,20 +2269,20 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="C16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="6:7" ht="185.25">
       <c r="F21" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -2311,36 +2311,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2351,45 +2351,45 @@
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -2466,17 +2466,17 @@
     </row>
     <row r="21" spans="1:1" ht="15">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2487,108 +2487,121 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+        <v>180</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Order" sheetId="2" r:id="rId5"/>
     <sheet name="Meal Pack &amp; Weekly planner" sheetId="7" r:id="rId6"/>
     <sheet name="Order to chef" sheetId="5" r:id="rId7"/>
+    <sheet name="Pages" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="204">
   <si>
     <t>RoleName</t>
   </si>
@@ -572,6 +573,66 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>Update Password</t>
+  </si>
+  <si>
+    <t>My orders</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>My profile</t>
+  </si>
+  <si>
+    <t>My order (Dashboard)</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Take my own order or Cancel order</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Location Page</t>
+  </si>
+  <si>
+    <t>Shopping cart component</t>
+  </si>
+  <si>
+    <t>Get details and confirm details</t>
+  </si>
+  <si>
+    <t>Payment Selection</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Combo Homepage</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2609,4 +2670,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -599,18 +599,12 @@
     <t>My profile</t>
   </si>
   <si>
-    <t>My order (Dashboard)</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>Take my own order or Cancel order</t>
-  </si>
-  <si>
     <t>Home page</t>
   </si>
   <si>
@@ -633,6 +627,12 @@
   </si>
   <si>
     <t>Combo Homepage</t>
+  </si>
+  <si>
+    <t>My order</t>
+  </si>
+  <si>
+    <t>(Dashboard)Take my own order or Cancel order</t>
   </si>
 </sst>
 </file>
@@ -2677,13 +2677,13 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2699,7 +2699,7 @@
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2710,10 +2710,10 @@
         <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2724,7 +2724,7 @@
         <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2735,7 +2735,7 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2746,7 +2746,7 @@
         <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2757,7 +2757,7 @@
         <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2765,25 +2765,25 @@
         <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Meal Pack &amp; Weekly planner" sheetId="7" r:id="rId6"/>
     <sheet name="Order to chef" sheetId="5" r:id="rId7"/>
     <sheet name="Pages" sheetId="8" r:id="rId8"/>
+    <sheet name="CRUD Operations Guide" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="227">
   <si>
     <t>RoleName</t>
   </si>
@@ -633,6 +634,75 @@
   </si>
   <si>
     <t>(Dashboard)Take my own order or Cancel order</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>create(Add user)</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Get(Profiles)</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Chef Registration</t>
+  </si>
+  <si>
+    <t>Read or Fetch</t>
+  </si>
+  <si>
+    <t>Get Profile</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Post/Put</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>LoginDetails</t>
+  </si>
+  <si>
+    <t>API Response</t>
+  </si>
+  <si>
+    <t>200, message</t>
+  </si>
+  <si>
+    <t>User basic and address details</t>
+  </si>
+  <si>
+    <t>Chef basic and address details</t>
+  </si>
+  <si>
+    <t>Get( Chef Profiles)</t>
   </si>
 </sst>
 </file>
@@ -710,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,6 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,7 +1071,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1739,9 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -2676,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2790,4 +2859,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="E17" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="E26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Order to chef" sheetId="5" r:id="rId7"/>
     <sheet name="Pages" sheetId="8" r:id="rId8"/>
     <sheet name="CRUD Operations Guide" sheetId="9" r:id="rId9"/>
+    <sheet name="Execution Plan" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
   <si>
     <t>RoleName</t>
   </si>
@@ -703,6 +704,27 @@
   </si>
   <si>
     <t>Get( Chef Profiles)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>UI , UX, basic flow</t>
+  </si>
+  <si>
+    <t>API integration, UX main flow and other flow</t>
+  </si>
+  <si>
+    <t>UX for mobile site, work flow, Chef Assigment Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date </t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tentative -UX for Mobile App only design. Profile, Chef dashboard, Loged in user profile </t>
   </si>
 </sst>
 </file>
@@ -780,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,6 +819,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,6 +1089,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
+        <v>43430</v>
+      </c>
+      <c r="B2" s="12">
+        <v>43443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
+        <v>43444</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
+        <v>43458</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
+        <v>43107</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
@@ -2865,7 +2962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20400" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="4" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Pages" sheetId="8" r:id="rId8"/>
     <sheet name="CRUD Operations Guide" sheetId="9" r:id="rId9"/>
     <sheet name="Execution Plan" sheetId="10" r:id="rId10"/>
+    <sheet name="Status Report" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="253">
   <si>
     <t>RoleName</t>
   </si>
@@ -725,6 +726,63 @@
   </si>
   <si>
     <t xml:space="preserve">tentative -UX for Mobile App only design. Profile, Chef dashboard, Loged in user profile </t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Vel</t>
+  </si>
+  <si>
+    <t>Srimaran</t>
+  </si>
+  <si>
+    <t>Siva, Kadhir</t>
+  </si>
+  <si>
+    <t>Going as per the plan</t>
+  </si>
+  <si>
+    <t>Pending, Dependency</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Order Allocation***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management </t>
+  </si>
+  <si>
+    <t>slack and Tracker Setup</t>
+  </si>
+  <si>
+    <t>Kadhir, Srimaaran</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1152,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1160,6 +1218,567 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2843,7 +3462,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
